--- a/Tugas3Spasial_KasusTBCJawaBarat.xlsx
+++ b/Tugas3Spasial_KasusTBCJawaBarat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univindonesia-my.sharepoint.com/personal/rahmat_affandi_office_ui_ac_id/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D2C5D9F-164D-480D-A481-EFC8E89BCB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1D2C5D9F-164D-480D-A481-EFC8E89BCB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CA9707B-7C4E-417D-8D76-A68FDB46AF66}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{938D3EB5-1BCF-4A5E-9D31-4A91A20B16A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Jumlah Balita Imunisasi BCG</t>
-  </si>
-  <si>
-    <t>Jumlah Penduduk Miskin</t>
   </si>
   <si>
     <t>Persentase Penduduk Miskin</t>
@@ -216,12 +213,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{888EBA43-7D26-482A-B585-0ED6D930A6A6}" name="Table13" displayName="Table13" ref="A1:K28" totalsRowShown="0">
-  <autoFilter ref="A1:K28" xr:uid="{888EBA43-7D26-482A-B585-0ED6D930A6A6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{888EBA43-7D26-482A-B585-0ED6D930A6A6}" name="Table13" displayName="Table13" ref="A1:J28" totalsRowShown="0">
+  <autoFilter ref="A1:J28" xr:uid="{888EBA43-7D26-482A-B585-0ED6D930A6A6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J28">
     <sortCondition ref="B1:B28"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{572D333D-81E7-4EF9-A35D-6362434463B0}" name="No"/>
     <tableColumn id="2" xr3:uid="{B2F18E44-E86B-41CF-9AD9-8157446C8366}" name="Kabupaten/Kota"/>
     <tableColumn id="12" xr3:uid="{BA82A2E8-F866-486B-8158-40B71E9E34D0}" name="Latitude"/>
@@ -231,7 +228,6 @@
     <tableColumn id="5" xr3:uid="{3599338C-2AE8-45A6-B32F-6D9D924166D9}" name="Kepadatan Penduduk"/>
     <tableColumn id="6" xr3:uid="{8C1A523F-0FA4-4F49-AF19-2DA6313DEE07}" name="Jumlah Puskesmas"/>
     <tableColumn id="8" xr3:uid="{9F7B9E10-81A4-4AF1-B064-1CA965026A97}" name="Jumlah Balita Imunisasi BCG"/>
-    <tableColumn id="9" xr3:uid="{A907AE30-FDE2-4B17-B2FE-2F28DE217FDB}" name="Jumlah Penduduk Miskin" dataCellStyle="Normal 2"/>
     <tableColumn id="10" xr3:uid="{13F7FDC6-065D-4FF5-8364-3AB2578F85D4}" name="Persentase Penduduk Miskin" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -535,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619EA152-FC14-4869-8F98-5860AED060A4}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,7 +552,7 @@
     <col min="11" max="11" width="27.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,16 +583,13 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>-7.0635399999999997</v>
@@ -620,18 +613,15 @@
         <v>62312</v>
       </c>
       <c r="J2" s="1">
-        <v>239.9</v>
-      </c>
-      <c r="K2" s="1">
         <v>6.19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>-6.9054468</v>
@@ -655,18 +645,15 @@
         <v>26550</v>
       </c>
       <c r="J3" s="1">
-        <v>179.7</v>
-      </c>
-      <c r="K3" s="1">
         <v>10.49</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>-6.2003142000000002</v>
@@ -690,18 +677,15 @@
         <v>52476</v>
       </c>
       <c r="J4" s="1">
-        <v>204.5</v>
-      </c>
-      <c r="K4" s="1">
         <v>4.8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>-6.54536315</v>
@@ -725,18 +709,15 @@
         <v>89595</v>
       </c>
       <c r="J5" s="1">
-        <v>446.8</v>
-      </c>
-      <c r="K5" s="1">
         <v>7.05</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>-7.3114228499999996</v>
@@ -760,18 +741,15 @@
         <v>14574</v>
       </c>
       <c r="J6" s="1">
-        <v>90.8</v>
-      </c>
-      <c r="K6" s="1">
         <v>7.39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>-7.0538496000000004</v>
@@ -795,18 +773,15 @@
         <v>37378</v>
       </c>
       <c r="J7" s="1">
-        <v>239.3</v>
-      </c>
-      <c r="K7" s="1">
         <v>10.14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>-6.7612503999999998</v>
@@ -830,18 +805,15 @@
         <v>39427</v>
       </c>
       <c r="J8" s="1">
-        <v>245.9</v>
-      </c>
-      <c r="K8" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>-7.3428971499999998</v>
@@ -865,18 +837,15 @@
         <v>46123</v>
       </c>
       <c r="J9" s="1">
-        <v>259.3</v>
-      </c>
-      <c r="K9" s="1">
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>-6.4495510999999999</v>
@@ -900,18 +869,15 @@
         <v>25173</v>
       </c>
       <c r="J10" s="1">
-        <v>212.1</v>
-      </c>
-      <c r="K10" s="1">
         <v>11.93</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>-6.2653112499999999</v>
@@ -935,18 +901,15 @@
         <v>36491</v>
       </c>
       <c r="J11" s="1">
-        <v>187.8</v>
-      </c>
-      <c r="K11" s="1">
         <v>7.86</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>-6.9033229</v>
@@ -970,18 +933,15 @@
         <v>31190</v>
       </c>
       <c r="J12" s="1">
-        <v>101.1</v>
-      </c>
-      <c r="K12" s="1">
         <v>3.87</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>-7.3805232500000004</v>
@@ -1005,18 +965,15 @@
         <v>2337</v>
       </c>
       <c r="J13" s="1">
-        <v>11.2</v>
-      </c>
-      <c r="K13" s="1">
         <v>5.85</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>-6.2848799</v>
@@ -1040,18 +997,15 @@
         <v>39004</v>
       </c>
       <c r="J14" s="1">
-        <v>128.80000000000001</v>
-      </c>
-      <c r="K14" s="1">
         <v>4.01</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>-6.5951824500000003</v>
@@ -1075,18 +1029,15 @@
         <v>15944</v>
       </c>
       <c r="J15" s="1">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="K15" s="1">
         <v>6.53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>-6.88232775</v>
@@ -1110,18 +1061,15 @@
         <v>9510</v>
       </c>
       <c r="J16" s="1">
-        <v>27</v>
-      </c>
-      <c r="K16" s="1">
         <v>4.3899999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>-6.7436683999999998</v>
@@ -1145,18 +1093,15 @@
         <v>4046</v>
       </c>
       <c r="J17" s="1">
-        <v>29.2</v>
-      </c>
-      <c r="K17" s="1">
         <v>9.02</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>-6.3878750000000002</v>
@@ -1180,18 +1125,15 @@
         <v>29762</v>
       </c>
       <c r="J18" s="1">
-        <v>62.6</v>
-      </c>
-      <c r="K18" s="1">
         <v>2.34</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>-6.9357310999999999</v>
@@ -1215,18 +1157,15 @@
         <v>5791</v>
       </c>
       <c r="J19" s="1">
-        <v>24.1</v>
-      </c>
-      <c r="K19" s="1">
         <v>7.2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>-7.3600173</v>
@@ -1250,18 +1189,15 @@
         <v>10485</v>
       </c>
       <c r="J20" s="1">
-        <v>76.7</v>
-      </c>
-      <c r="K20" s="1">
         <v>11.1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>-6.9875563999999999</v>
@@ -1285,18 +1221,15 @@
         <v>14303</v>
       </c>
       <c r="J21" s="1">
-        <v>131.80000000000001</v>
-      </c>
-      <c r="K21" s="1">
         <v>11.88</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>-6.8074598000000002</v>
@@ -1320,18 +1253,15 @@
         <v>16676</v>
       </c>
       <c r="J22" s="1">
-        <v>134.6</v>
-      </c>
-      <c r="K22" s="1">
         <v>10.82</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>-7.6404222500000003</v>
@@ -1355,18 +1285,15 @@
         <v>4790</v>
       </c>
       <c r="J23" s="1">
-        <v>36</v>
-      </c>
-      <c r="K23" s="1">
         <v>8.75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>-6.5925297499999997</v>
@@ -1390,18 +1317,15 @@
         <v>16714</v>
       </c>
       <c r="J24" s="1">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="K24" s="1">
         <v>8.41</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>-6.4982161500000002</v>
@@ -1425,18 +1349,15 @@
         <v>23786</v>
       </c>
       <c r="J25" s="1">
-        <v>152.6</v>
-      </c>
-      <c r="K25" s="1">
         <v>9.49</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>-7.0764898499999997</v>
@@ -1460,18 +1381,15 @@
         <v>34839</v>
       </c>
       <c r="J26" s="1">
-        <v>175.9</v>
-      </c>
-      <c r="K26" s="1">
         <v>6.87</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>-6.8101627000000002</v>
@@ -1495,18 +1413,15 @@
         <v>15311</v>
       </c>
       <c r="J27" s="1">
-        <v>108.9</v>
-      </c>
-      <c r="K27" s="1">
         <v>9.1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>-7.4279969000000001</v>
@@ -1530,9 +1445,6 @@
         <v>23613</v>
       </c>
       <c r="J28" s="1">
-        <v>186.8</v>
-      </c>
-      <c r="K28" s="1">
         <v>10.23</v>
       </c>
     </row>
